--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/利润总额.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>22.93438</v>
-      </c>
-      <c r="C2" t="n">
-        <v>145.45336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.89067</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>4.65461</v>
-      </c>
-      <c r="G2" t="n">
-        <v>101.1887</v>
-      </c>
-      <c r="H2" t="n">
-        <v>49.04117</v>
-      </c>
-      <c r="I2" t="n">
-        <v>90.81863</v>
-      </c>
-      <c r="J2" t="n">
-        <v>26.47449</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.81399</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3183.28</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.09735</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7.35572</v>
-      </c>
-      <c r="O2" t="n">
-        <v>42.42032</v>
-      </c>
-      <c r="P2" t="n">
-        <v>45.33608</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>10.97235</v>
-      </c>
-      <c r="R2" t="n">
-        <v>27.11116</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.74711</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.84393</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-0.95091</v>
-      </c>
-      <c r="V2" t="n">
-        <v>139.09756</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-2.4155</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-3.57648</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>413.89524</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>327.54988</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>98.66034000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.42417</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-9.91291</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1145.54176</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>68.80852</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4.88447</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>32.05015</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19.78863</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>41.56986</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.49605</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>26.38647</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29.04811</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>91.95501</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>137.6831</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.25253</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>28.09692</v>
-      </c>
-      <c r="C3" t="n">
-        <v>242.12112</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.09061</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>13.64989</v>
-      </c>
-      <c r="G3" t="n">
-        <v>69.1969</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15.91331</v>
-      </c>
-      <c r="I3" t="n">
-        <v>118.9161</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32.94733</v>
-      </c>
-      <c r="K3" t="n">
-        <v>36.06499</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3440.56</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.56604</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.61856</v>
-      </c>
-      <c r="O3" t="n">
-        <v>52.47929</v>
-      </c>
-      <c r="P3" t="n">
-        <v>53.29893</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>9.86877</v>
-      </c>
-      <c r="R3" t="n">
-        <v>39.87352</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.80792</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.41939</v>
-      </c>
-      <c r="U3" t="n">
-        <v>12.81133</v>
-      </c>
-      <c r="V3" t="n">
-        <v>177.14561</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-1.34302</v>
-      </c>
-      <c r="X3" t="n">
-        <v>28.71027</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>480.7416</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>369.16257</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>125.47639</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.16262</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-22.60235</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>970.2339899999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>59.46314</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5.68387</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>31.81599</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32.20624</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>48.19233</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.12119</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>37.34302</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>49.2299</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>97.29431</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>177.1811</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.30504</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>53.2383</v>
-      </c>
-      <c r="C4" t="n">
-        <v>411.86574</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.2995</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>8.550269999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>146.71096</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23.51311</v>
-      </c>
-      <c r="I4" t="n">
-        <v>144.77634</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32.56184</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44.44974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4008.97</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.32946</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.43662</v>
-      </c>
-      <c r="O4" t="n">
-        <v>91.15344</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57.10908</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9.04316</v>
-      </c>
-      <c r="R4" t="n">
-        <v>39.86551</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.80086</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.85679</v>
-      </c>
-      <c r="U4" t="n">
-        <v>20.46414</v>
-      </c>
-      <c r="V4" t="n">
-        <v>208.23081</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-1.50861</v>
-      </c>
-      <c r="X4" t="n">
-        <v>53.87864</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>508.24572</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>327.55137</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>155.84411</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.04062</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>29.22491</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>902.49098</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>76.57763</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.85067</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>58.95493</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>35.69307</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>51.07755</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2.82229</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>45.97046</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>46.05843</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>103.64625</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>259.25126</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.7236</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
